--- a/biology/Botanique/Liste_des_plantes_envahissantes_de_Bretagne/Liste_des_plantes_envahissantes_de_Bretagne.xlsx
+++ b/biology/Botanique/Liste_des_plantes_envahissantes_de_Bretagne/Liste_des_plantes_envahissantes_de_Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une première liste des plantes envahissantes en Bretagne a été réalisée en 2007 et réactualisée 2011 par le Conservatoire botanique national de Brest.
-Cette liste comprend 102 taxons en 2011[1].
+Cette liste comprend 102 taxons en 2011.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Définition du caractère envahissant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le caractère envahissant est évalué en Bretagne comme suit :
 envahissante avérée : Plante non indigène ayant, dans son territoire d’introduction, un caractère envahissant avéré et ayant un impact négatif sur la biodiversité et/ou sur la santé humaine et/ou sur les activités économiques.
@@ -547,7 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces envahissantes avérées
+          <t>Espèces envahissantes avérées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Egeria densa ou élodée dense
 Ludwigia peploides ou Jussie rampante
 Ludwigia uruguayensis ou Ludwigie à grandes fleurs
@@ -575,7 +595,43 @@
 			Séneçon maritime.
 			Balsamine de l'Himalaya.
 			Séneçon en arbre à Belle-Île-en-Mer.
-Espèces potentiellement envahissantes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_envahissantes_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_envahissantes_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des plantes envahissantes de Bretagne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces potentiellement envahissantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cuscuta australis ou cuscute d'australie
 Ailanthus altissima ou faux vernis du Japon
 Buddleja davidii ou buddleia de David
@@ -603,7 +659,43 @@
 			Robinier faux-acacia.
 			Pétasite.
 			Séneçon du Cap.
-Espèces à surveiller
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_envahissantes_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_envahissantes_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des plantes envahissantes de Bretagne</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces à surveiller</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Heracleum mantegazzianum ou Berce du Caucase
 Bromus willdenowii
 Conyza floribunda ou Vergerette à fleurs nombreuses
@@ -673,31 +765,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Liste_des_plantes_envahissantes_de_Bretagne</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_envahissantes_de_Bretagne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Autres espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">D'autres espèces peuvent devenit potentiellement envahissantes du fait de la réduction des périodes de gel liée au réchauffement climatique.
 Pseudognaphalium undulatum ou Cotonnière ondulée
